--- a/DollerDays/src/test/java/data/DollarDaysTestdata.xlsx
+++ b/DollerDays/src/test/java/data/DollarDaysTestdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16515" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16335" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -41,12 +40,6 @@
   </si>
   <si>
     <t>kumar</t>
-  </si>
-  <si>
-    <t>Assert</t>
-  </si>
-  <si>
-    <t>divya r.</t>
   </si>
   <si>
     <t>john s.</t>
@@ -397,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -409,48 +402,36 @@
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -465,14 +446,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
